--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/1_Adana_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/1_Adana_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC35A5EF-5B16-4CBF-BE47-48219CC89530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{668C1563-DAF4-44BA-9F42-209E82E28618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{89A29FB5-B7BD-41DF-8998-D3009FF0F91D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{D386B9E6-2856-418E-8C7F-ADF1D84ECDDF}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -957,13 +957,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A99069BA-E18C-460D-9D32-4F602537E48D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{526F1A3C-4BDB-4A1D-9088-AE238D1E9513}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9405D760-1EA9-4E94-9113-B4813205AEE3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{46898EBA-7FB1-4D53-8577-AC36CBCA2F41}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D5234542-6266-40BC-A041-1BB2423B0AA4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2CE34C3A-6C39-4046-B5E2-18834D2B9709}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{139C08BD-05B7-41AD-A784-369CC510F400}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B00C5F96-104C-4764-8CD9-C542E248DF92}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{45F8D84D-3494-47F9-BE0D-1516B6839D86}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7E1EB127-25F3-4498-B770-FE356C4B218E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{46406FF0-29F3-4DA0-AB19-17E6FAF61BCA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CBE51A0C-BAE6-4113-978D-2F79A7079656}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{7AD3D9BB-2A99-47AE-ACCD-DFCA975EFFAA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{73D27F9E-FEDA-466C-96B2-D1D56FE97B94}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433CC53F-C9EA-4BCD-8165-E80906D86257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BE9DA6-B48C-4C8C-AFE7-3799F09FB721}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2644,18 +2644,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC9498EF-B363-4A3F-9E3D-2E7495CBB949}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22724E33-CB7C-4518-A986-E37B7E3084EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A747FD45-46D1-4C0A-8AA4-8544C68EE802}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{00875E19-6677-4A43-9257-2538227C3B9C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51995179-2823-46E8-A1F8-6A2B1C2C4F66}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6B973793-6279-4AF7-9A81-98BE604524CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{806BB272-D6C9-429B-A43B-A360219F3468}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCD08BAC-BD81-43F4-A172-489242321A47}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBEFFB0E-5E11-4FDA-97DF-0CC39AFF3CFE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A21D90D7-06AC-46B9-AB51-F80BF0F1AECC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9A1A0C5-5C52-45F4-92DC-F09F153526AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D19AE090-FDCD-4099-9391-ECE6629205FA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2139AF9D-DB08-49FA-A5BB-C4552A3E89FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8465FED8-AB85-4FFC-8EA3-996140FBA991}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{404D7B3A-B486-4F8D-8192-41791824974F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{131B56A1-F127-4545-A516-C246BE474A03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{888185F4-4D89-4BC1-8E5D-1A861542A8DB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{743F35B1-727C-4126-BAD3-1EB03A63ACEB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B490C698-6667-4AB6-A783-31850E4C76D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC9F4FDC-7119-481F-B0B9-64FE24BC4645}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DBD0BC36-8C7B-4BF7-BB7E-453ECE5BDFD4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2EA03D65-4806-421C-A7C5-2B96A8ADC7C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6F0F3CC-4CD1-46F9-9555-D68048796809}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66B2D929-4E75-47FA-A344-2416E0355F67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2668,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DD2F6-D286-44D3-9B0E-1ED9CD60DEDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1989B23-EEEE-4D85-8D86-8979AFFA2EB5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -4008,18 +4008,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3786F33-75E1-4EF7-BF0C-0B83DB9B0B19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{956D635C-8345-4240-987D-60219399F58C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5EC06AD-4FF2-4164-BBD2-D7F73376C816}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D907683B-1E70-44D5-973F-5E7B4B51F415}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{077A2AA7-5D43-4CB9-8A2B-E1B5C5C8EDD4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4424FFBE-35DB-46A2-B219-91EEBCE8DC4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6246F9D0-283E-4EF3-99F5-6C19E5BDFCEE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C275364-21FE-42AB-8FC6-F71B9069F47D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B19D771C-5D19-46B9-A3BA-82B95F3C5881}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{136BB296-7A71-4E75-8A0D-388BAECF1A2A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D4E6804-3539-47D8-BADA-6C803D6E602F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9EEC0B1-EC22-40F1-88F7-82DAE63C9A01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12279D99-437A-4548-88FB-ECE77FCDFC05}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A97A00CE-49E2-4A6C-9F40-1E63364782DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F84CD72B-A93E-46EF-8977-C8C42DF5523C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2DD78760-F8F0-45CC-9134-B698251D96D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76565846-CC80-4207-94D8-8BEE7E43BEF0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{269BBE93-F54D-489D-9F9F-B98297B030E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6911E900-CDC0-4B82-A432-D9F1677C063D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D6512D7-2B96-4BC1-9454-5FB5914F9901}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70966F44-5F15-473C-B544-81EDBEA084EF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C751861B-25C6-449E-9A9B-DAB94402591E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F4D2A21-C32F-41F0-88C9-778A30AA46AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9822CC33-6B60-4AAE-8B07-2D8896755CBC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4032,7 +4032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9E0CB1-0431-4A0A-B847-38C7D8C4428F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CD4F59-D7A4-4867-BD32-1E7F18AAF348}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -5372,18 +5372,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC3D8415-97D3-4CD0-B93A-EC11E024A398}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C26F415-D116-4598-AA83-39E769CED206}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F551D80E-4778-4343-9095-73C81082BF54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A1D14975-CCA4-4F99-A075-63D31942022E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37B833FE-1610-4195-8D94-09FE201D1880}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9B78E8EB-B65A-472B-B33C-061BBDA6219C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{646DFDC3-6069-49DA-829A-9BFF2DF53389}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02872582-57E8-4F58-83F7-68AF796507A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C4C4756-DFED-423D-8A03-B32561EA64ED}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{679CA377-666C-460C-87AF-534765E7DFAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8B6DDFE-BC45-4E47-A720-A046EDB1DDAC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92208DDA-79E8-424C-8DB5-4D65BAA6118A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C0DA212-C972-4E0D-BCF9-CBB500F3868F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28EF0E30-5256-43C9-B292-3DE7F6A53EFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A82F3B2-6D38-4604-9D00-AC0E90FBA0F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7628FF5D-8262-412C-BA25-E0CD68E3AC47}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E3347A6-FA47-4C98-BC44-144E481D2EA1}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C0B12F8-5AC6-4DF1-A205-4531C894AC72}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27F93D87-E846-426E-8B67-295D20A21D99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58C4640A-BECB-4433-8158-5FE71EB34183}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA840702-AFBA-432D-980C-CA162D72AB9A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{56C13DD3-CC52-433A-8661-89D0FF8525BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B619340-01AC-4439-A390-D363CB5CF7B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAD53E5E-9129-42B0-84F1-24C7081F1E22}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5396,7 +5396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B53990-DB61-4A16-8C0D-FAB86499F65F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3107E-AD39-4E0C-AD8D-EE8E47FD0264}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -6726,18 +6726,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79D17755-E4C1-4D5F-8E6A-ABF1DDC9ED75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3B8D1A1-9049-439C-907B-684EB249F10A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9F48FEDD-8D93-4857-B83E-86CE7CB5B92B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D625305F-A268-4F98-A33D-DA56135D9EEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D3C7719-C6DE-493A-8CF3-260264466E5D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B37C0931-A7F8-4028-A9CE-CAF164DE24B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6F11D84-0DA3-4F67-96FC-9A496ADB362B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{02735380-DF31-4AC0-9F2B-E5CD95E6E85C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15B5CA6B-1529-4713-BC2C-153C468E3B02}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{59777623-B641-44C8-8126-975484C7441A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{429DAE5D-A2BB-4747-A2A0-89971E8B3659}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D7E0402-0267-4B6B-8A63-D503BA78D938}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{637FC9F6-DF29-4AB3-B7E5-C603F0BB828F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3CCF496-9731-4408-A006-6D982F247E60}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F93D37DB-E911-40E8-90C4-05EE7FD76355}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33927557-0BF5-4A1E-9607-D19A03228650}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C59E1776-C72B-481B-9E37-C543E1BBE4FF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC8BF51A-AF8A-478C-83DC-2D66C364FE43}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{905C9E04-1369-4EC1-A41B-DC6F041171DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{214AC2DE-9247-4956-B504-841DD0610440}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69415A77-01C0-4B6C-A293-0E024FEEEDFD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB4E7831-D0F0-4DD3-A584-AE29BE38FEC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6415007-BE30-4748-A980-9C18E62713A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A4B4175-90A2-470F-BD09-37A379E35404}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6750,7 +6750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2AD37F-003C-4B48-ADBE-9113EFAF67BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D7CBA2-22D4-4FAA-B4B6-DCB68237893F}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8061,18 +8061,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E9DB7C8-10B9-4EB5-89B2-26E8C350E370}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5C51A05-D169-4C60-8D34-69414DAE3726}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FC01D1C-67A3-463E-A4DE-6F1068639BD9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C301715A-4496-4DC1-9C2C-3CCC5CBBCF1B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5996A20D-F66C-49D6-8EC6-5E76F54C5561}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6863F7FE-60D2-4517-9291-45F43CA41BDE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91570347-DEDE-45DB-B7D1-78C1BF4C5238}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D5BFA34-E068-4D25-A90B-AD516BD21BD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D7075E4-4E8B-44E8-AE1F-450AFDFEB75F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0E8B00FB-B173-4DFD-9335-8D1D214CB500}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{02D76BB5-5014-4FA1-A84A-9DC8B7A7A81B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C6DB09A-329D-493E-BEF1-C02F9C8E398F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7041595-B50A-43B8-9101-67B51A64876D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8F5AAA4-C03F-4816-B32D-BA96D368F4A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{366ACC7E-C8CE-4776-A25C-F3FD433B10FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A73741C3-29E5-4A70-890A-62C046A6ADFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9352FFC-E79A-4F07-AEC7-98201F7A73FA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EDC18DBF-6E96-48D2-9C98-1046C7AB6EEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C1DAF02-5F2F-43B7-A045-383EC4B616A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FECF4D57-D597-49E3-A785-7902F9744FF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3AFB28E-94F6-4AC6-97D5-768AED7D5A6E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C94BFAFA-7DC6-4DA9-BE4D-C4165806609F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D351989-0B53-4782-8DB3-11D4D7F7858C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE813C87-B2AD-424F-9583-F590B871B377}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8085,7 +8085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E699510-1030-4A26-8233-A2EF8624008F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B1F4A-2657-4381-94C0-6D6F7F02491A}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9396,18 +9396,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88056485-96EE-4B48-BD89-A43217C398CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC19FB3D-1D60-4B82-892B-D980402727F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D60FC62D-A72A-4318-AD7F-394537189E68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B9AACA3-0A50-433F-9945-036578EF1EEC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1CFF3D90-D312-41EA-965A-894D760DA0E9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9094B442-9D92-4D1D-B194-C038594470EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86194367-86F3-4069-8120-AE46BE5CC977}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{989CB4A8-9DCC-4F09-9091-109DC7E09BEB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD54974E-38E0-42F6-B3B7-084573E1503D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6710A75B-2B29-4A6B-8879-18414D809F6B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3F88321-958A-4CDE-99E8-2126021847C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{008A5DE2-BF46-4367-9590-81A8C77308E6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C593E8F-C890-4D89-968C-0A76C97C5BDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCF54F2B-F790-4181-A54F-22AAEF0AE0A7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66A4241A-8CD0-40BF-8DD6-85D605268D29}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C078E057-6A41-4142-B9E6-5EF9AB04BF6A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24A45BC6-9518-4DB6-A020-9B30968DED26}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7C6C6192-C8DF-4B8E-A0ED-16356E357923}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E52740F2-215A-413E-A756-FD6F6AE0210A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED6AEDB7-77FD-4FA5-BB1F-347649236155}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A286698-B37E-444F-A557-D02CA44BA32F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{643B0185-04C9-400A-AE53-701D0FD9AD00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A06604D-6D34-4B22-BD21-A69A3D7FEFA9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62E4493D-8752-4583-A74F-9D3752D68277}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9420,7 +9420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E1614-646A-4AF9-A00E-8FCBABA8F78C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732925FE-52C2-4A21-B473-389CD4020D15}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10731,18 +10731,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EAC67474-B243-4EE9-8184-10B8F8F6CD38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC46D172-D593-4E90-B298-F0B3ABA511C7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48E5C526-5F95-421D-ACF8-A9E099BB5ED0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1433B53-4D77-4E81-BCF8-C55A96654D4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D50C31E7-FB4A-46DC-A2FA-1D5B618D9D08}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{06ECF1CD-CC7B-4C0B-AEE1-BD0BC8293B5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DE1C2B6-A27A-4485-AC63-C7C3F2432CD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BAA442ED-3D89-4DD4-AF58-7BA8D0B5885D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1BBC3016-766C-4648-9278-CC55BB56884C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{272F5ECF-AAEC-4882-A5D7-E0BEB972F6AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{294FBBF6-89B3-4B58-A5C0-D3DC605A0ED9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DFAB03B-120D-4B08-9C6E-9DDF1B5F34E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E868EC7C-0D7F-4C3E-B719-7EC7C4B2832C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EB07FFE-4B17-4D30-84C5-60650C200F5D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B109BA7-E71B-47F6-9862-C98B2139A1FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B53E57B2-8235-4579-B7F9-FEFEB6F2B082}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BA10D31-DA21-4EF0-BE30-3908D2A80965}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD4D5D25-C8A9-48E1-BAFF-24C7ADAAC4FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D1E97C6-869B-46E2-B401-87F1CCE48B3F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9C5478B-0885-4703-AA6F-B854CE8A873B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B9ABB09-3146-436E-992E-52CA3D1E41CF}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{817D5D95-EC38-42AC-9864-32D27B254CCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB89CFF5-969A-47A0-9E46-466C96E4A7A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D503EB9D-4EA3-4527-AFA7-2FF6D6E6A4F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10755,7 +10755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870A1B43-7AAB-4C00-A06F-773F990EDA74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B5BA23-94CD-4C8C-BF8E-6BE884A86535}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12066,18 +12066,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5DF5451-D17F-447F-A90D-9590F66A0A78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C78D34C6-A617-4751-82B8-6D767476D671}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54627D64-2E79-4A7B-969D-D7556D56F53E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B19B3FB1-10C4-468D-BDE1-3C4FA05F7F6E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6450415D-F163-4978-8E9F-CC3E395EC175}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{03F66D78-063A-4F46-90FD-713E062223FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F2B4307-2EA2-4291-9FB4-3D4CA9E342ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8812359E-D3EC-40CC-847A-6E87D2547649}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A93341C5-41AD-4ADB-A6AC-7EA24BD27EC4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{213DE50F-240E-43E3-BDD2-23FEB5A2A719}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C58978B5-7660-4967-B234-B06B60B59927}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87F1085C-1D3C-42A2-968F-C3B1A410C21F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27E001CA-4D01-44A0-80E6-B51FBED9CD4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFE2C5BE-F7C1-499F-8581-41A93987DA26}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0838786-53A2-4F04-BED1-3F007EB29AFC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7440125D-9846-4F97-97A0-8165A0E89E4F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38F733E9-2F99-473B-BCD6-AC7700B10A83}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{102545E8-4934-46A4-8D26-6AF1B6CB22D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69687358-CEC1-4DE4-A4FC-2EC95C24279A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB687364-8313-47B8-93C0-F6D4C9567779}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C0D54D2-74BE-4A05-98DF-8011BF0F170C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{871DBB0B-FDF0-49C7-BD19-1CC6A50C9225}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB1861E3-0B31-4482-A8AB-1D50CB244BF9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E93ACCD-151A-4844-9B49-1DC4C5B36E6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12090,7 +12090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AAA9C4-3CCF-46C3-9342-4B2C5AD6E454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A3DB2-8144-44DD-92DE-3EBEA9DDFED2}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -13394,18 +13394,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96068715-1AC5-4718-8F6E-008EA411F879}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6305088F-5CB8-4B4A-8F1A-0EB08AC20E43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EFC7C74C-A846-4E64-99EA-5FFBE3C663D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41E1F3E2-CEC4-423F-9FE8-49C195E7B7CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D887FF3-BB7B-4EE3-9B24-077C569AC979}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DE1AA52-EDC4-442B-9E1F-6CCA8AA4CB58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FF4B333-749C-472F-BA87-41A6396983A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F8656B3-D740-4E31-B4E1-E7F6C4F7FB58}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD1350FC-B345-437C-9B11-76E3042732E7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{70BB4834-2A38-414B-BED8-C843C49EE038}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD9931CF-58B0-4CB6-9051-29B66BE7B2E1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6170E20-CF33-4DF3-A47F-CC42C5FF22E6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D9501C5-5C70-4BC9-A4C9-8F2B89C38BAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADF20B38-7300-498B-971D-F5B7A45D5649}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9CD708FF-59C1-429E-8F65-5CCBFD5864BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{10DBBAFD-1103-400C-9EB3-FB6F26A6AE9B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{086A4BC4-3E6E-4617-90DE-D634ACAA2BF0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7A63DEE-01EB-4449-A144-5C3AAFBBBF16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1726FCF0-520F-4D66-A259-CAC9C47F0F74}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F6EA463-5087-4930-917B-D5A6F6364470}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43DE5B30-0E3B-4407-B1E5-CA99DB1089E5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1DB2B512-A513-4E9E-845F-F6DE8D6CA91E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11379D21-1D9A-436F-94A3-A2F03C685270}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEC3ADFA-5127-4032-836D-499F53F1F10D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13418,7 +13418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D914CD-18B4-461F-8D14-F8B38165B6F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29236E2F-582C-48FC-8221-AE51A99E50F8}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -14758,18 +14758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3923DE84-59B2-4743-9949-EBFC85750C84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC24FA89-2650-4FB2-B4FB-67DC291C5096}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C17FD23C-73A4-4176-AA96-9C79DC889921}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46B20E8A-2F18-4FA0-ACA9-DF1B2906BA4D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C25324B-FA35-4D26-BD28-C5704F724202}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80455621-DEFD-41EE-A35C-3038FAFF8595}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35B9EC77-3E45-4298-889B-F02CEF28234C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6139BF0F-8064-469B-9A63-02556C7D86FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0AC48AB0-63AF-4866-B78E-C097D5616821}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8725B48A-A7FF-48D7-97D5-249F531EFC99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC3F4764-33BC-4182-A0EC-0F756EEC9978}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{458B1696-2B3B-4361-B654-BC1883774B95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1859756-7339-4224-B730-4B14971D3C4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14EC6818-77FC-4EE6-85F4-464285B8DEB4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BEB454B-2FF8-4C24-A85D-4B5116F05B20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CD9E345-9142-4378-8CB4-4644FDC11CB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78AA58E2-0A4B-4A26-9161-846A9BFD0663}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{510861CC-4AFB-41A9-8F7F-9AE0361CEAAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{673B3293-F470-48D0-B2CC-AB575D9A1799}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C05B7AD1-5B1E-4B1B-B878-9BCEE5EA9C1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85BF729F-6C8E-44F1-985F-37CC3DDB64D6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{62D482B9-109F-4F6C-AA3F-DE2174607684}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{926D6511-D476-4C74-A097-10FBD991771C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D74C1261-5986-49C5-81E5-580C06CAABBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14782,7 +14782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B799FCC-93F5-4C5D-BC15-197DE7F752D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B12FC20-A8FC-4D4A-B4E5-95E5A83D6E24}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -16122,18 +16122,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9170C3F7-8CDC-47A3-9325-20A2C9129A9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C066200-3324-4CE2-8367-63D6047D100B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39FA12EC-B170-4C0E-9832-AC7260B75BA0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4F1614E-3C9C-4D7A-AFB4-BE3A32CB8274}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EFB0722D-45FC-48EB-A749-0FF111D1077E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B5A895CC-785D-406C-8FAF-A5F2C4093D0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9EAFB52-62E6-4558-920A-0B897DE9AAD9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B64FE0D6-0151-4D51-8BB2-8D9FBBBE6E97}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{915AFDE1-C862-49A7-BA83-D94186C692CA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A2437F8-58F5-4A4F-B1FB-E5EB7CE1A742}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{191592C5-E161-4804-BB78-9465AF139D5E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C63EC9A0-0966-42F9-A9E8-310D89468A65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E4059E0-E718-448A-A969-E230A59F171A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9D43642-F42B-4257-BA70-D8A675FA4B41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71938846-9848-48F2-832A-6934E400FA28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FBADA86D-5758-46F9-BF75-2BB10920E832}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{204D67C8-95EF-4677-A4FF-7C3FF7C146CC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{39228114-23C6-4DF1-A905-316A71F9023F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCF3C584-7AD9-4F01-BEFA-ED239D5611EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E143ED16-6F86-4EC5-9DB7-8080765B2FEC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F724CDC-A37A-4312-8605-15F120FE2D88}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4E294943-3241-4D96-BF02-FBF4D71E0EB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8EC532E7-990F-40B8-B62F-04F63E36BE21}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0E414D3-3EB8-482F-BAC5-2BC6C3ACC93C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16146,7 +16146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C92CD0C-9DA7-4C25-8EE1-25F89B8D87B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA55E003-6B95-4805-BF39-D301684F5D2C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -17486,18 +17486,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8271AFB5-4FC5-4D3C-9C27-37B79B9D26EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EDAC858-29FC-4FD3-986B-E72F36DB72CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94001269-CADF-4A02-AD18-5D582487F9D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{345A0164-B2EF-45AB-A5B3-E48FABC30FAB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5074CC4-50FB-4286-93B8-F5CA4DAEF400}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{52168C6B-F1CC-4A09-B00F-B8790DB20F99}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03BEA121-643F-4496-A415-993B277ABA64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1146D7D7-6DEB-4411-BE7C-09D37E30B7E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B44607D-96ED-4392-AE5E-9372267A584E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5C049FA7-E367-4A46-8833-D5CB574E0CBE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91544DF5-C634-4272-A143-DF24ED432123}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA72D46C-463D-40E9-AAA7-AA8CAC3B8A6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEA86312-86B0-467B-AF1F-3577BF741E44}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{643EBB69-634E-4C3E-9276-BFE144899E78}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56BBF030-77F9-4D2B-9367-DF5BC9CCFE1E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9354BEBA-A5CF-4615-AD1C-A2A150CD7736}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D1FC08E-669A-4625-B6B3-C0F71D9818DA}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{03C826FE-E5AA-4088-9AA9-6E15C7F854DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0084EEEB-F224-4F2F-81A9-9282C9DB2100}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80C68DF7-2E97-4000-9C41-BCE75E159746}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5193FC67-A3BC-4EF9-915B-3D1A25BE42DE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4603A67A-E4F0-4E80-A0C6-B41E1A96D790}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{746D627C-9F92-4A2A-A042-587067E2CD08}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1CA4E77D-1E63-4F6B-B44A-990A9D8E2DA6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
